--- a/medicine/Psychotrope/Bière_brut/Bière_brut.xlsx
+++ b/medicine/Psychotrope/Bière_brut/Bière_brut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_brut</t>
+          <t>Bière_brut</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La bière brut ou brut est un type de bière récemment[Quand ?] apparu en Belgique, en province de Flandre-Orientale et plus particulièrement dans la commune de Buggenhout située au milieu du triangle Bruxelles-Anvers-Gand. Seules deux brasseries élaborent et commercialisent cette bière de fermentation haute brassée à l'aide de méthodes champenoises. Ce sont des bières très pétillantes de qualité comparable aux vins de Champagne mais moins acides. 
 Elles bénéficient d'apport de levures spécifiques au Champagne lors de la refermentation en bouteille, de fermentation en cave champenoise, du système de dégorgement à froid ainsi que du remuage par giropalettes de 500 bouteilles. Ces opérations augmentent significativement le prix de ces produits.
